--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BN3PEPF00008C20\EXCELCNV\9d1fc0a3-37d8-47cf-a8a5-2991b0a86522\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7DC3A6-1306-4B8E-A386-103D20ADF466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E3CB16-E565-46A9-A873-4FDA3F2B9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,39 @@
   <si>
     <t>Alberto Junior</t>
   </si>
+  <si>
+    <t>servicosnubank0@gmail.com</t>
+  </si>
+  <si>
+    <t>noplay0011confidencial@gmail.com</t>
+  </si>
+  <si>
+    <t>silviabizelis1533@gmail.com</t>
+  </si>
+  <si>
+    <t>andreiaortega12@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielverasj1@gmail.com</t>
+  </si>
+  <si>
+    <t>juan33familiaqz6@gmail.com</t>
+  </si>
+  <si>
+    <t>oliivafelipe@gmail.com</t>
+  </si>
+  <si>
+    <t>noplay01confidencial@gmail.com</t>
+  </si>
+  <si>
+    <t>pezzinidebora2@gmail.com</t>
+  </si>
+  <si>
+    <t>Gipeperaio9@gmail.com</t>
+  </si>
+  <si>
+    <t>Giovanna.pcs@vigorito.com.br</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +379,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -690,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -708,6 +747,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,7 +1108,7 @@
   <dimension ref="A1:Q336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:XFD8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,8 +1450,12 @@
       <c r="M7" s="5"/>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5"/>
@@ -1428,8 +1473,12 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="3"/>
@@ -1447,8 +1496,12 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="P9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5"/>
@@ -1466,8 +1519,12 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5"/>
@@ -1485,8 +1542,12 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5"/>
@@ -1504,8 +1565,12 @@
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3"/>
@@ -1523,8 +1588,12 @@
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3"/>
@@ -1542,8 +1611,12 @@
       <c r="M14" s="5"/>
       <c r="N14" s="3"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="P14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3"/>
@@ -1561,8 +1634,12 @@
       <c r="M15" s="5"/>
       <c r="N15" s="3"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5"/>
@@ -1580,8 +1657,12 @@
       <c r="M16" s="5"/>
       <c r="N16" s="3"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3"/>
@@ -1599,8 +1680,12 @@
       <c r="M17" s="5"/>
       <c r="N17" s="3"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5"/>
@@ -1618,8 +1703,12 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5"/>
@@ -7670,6 +7759,18 @@
     <hyperlink ref="P4" r:id="rId3" xr:uid="{2E2000E3-8954-422A-BB8B-236854FD7276}"/>
     <hyperlink ref="P5" r:id="rId4" xr:uid="{224F4D2E-797B-4645-BE6C-F82FBED86D9B}"/>
     <hyperlink ref="P6" r:id="rId5" xr:uid="{0BA97B55-DC39-4960-9185-03A622F9A9C8}"/>
+    <hyperlink ref="P7" r:id="rId6" xr:uid="{F4C8E697-0794-4407-B48B-C97E37E36105}"/>
+    <hyperlink ref="P8" r:id="rId7" xr:uid="{CA1F4B9E-C406-4374-BFDD-386A2FD89694}"/>
+    <hyperlink ref="P9" r:id="rId8" xr:uid="{94D62FBE-0FDA-4188-A660-B1AD7444E626}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{7C2398D3-DE68-4236-BCB0-3407B8F92C82}"/>
+    <hyperlink ref="P10" r:id="rId10" xr:uid="{42FE7084-E887-42DD-AD70-25F4291A457A}"/>
+    <hyperlink ref="P12" r:id="rId11" xr:uid="{1CD600D8-6BE1-4451-9C23-E440089AAD62}"/>
+    <hyperlink ref="P13" r:id="rId12" xr:uid="{9436D9A6-406E-4CBC-BEDD-CD21C3E6BB04}"/>
+    <hyperlink ref="P14" r:id="rId13" xr:uid="{E014A7DC-A16C-4844-A06B-0F611B21D828}"/>
+    <hyperlink ref="P15" r:id="rId14" xr:uid="{A57C1A84-054B-44C3-AF33-9E3301E45205}"/>
+    <hyperlink ref="P16" r:id="rId15" xr:uid="{0656879B-A37F-4E29-8DBE-01C4B1C3C62B}"/>
+    <hyperlink ref="P17" r:id="rId16" xr:uid="{57A7D386-209C-4B56-8B70-EE073A21A49C}"/>
+    <hyperlink ref="P18" r:id="rId17" xr:uid="{FDDB1971-E614-4C73-A279-B604882252B8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BN3PEPF00008C20\EXCELCNV\9d1fc0a3-37d8-47cf-a8a5-2991b0a86522\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E3CB16-E565-46A9-A873-4FDA3F2B9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41647C3A-F0EB-4187-8567-B37E2383E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -203,9 +203,6 @@
     <t>gabrielverasj1@gmail.com</t>
   </si>
   <si>
-    <t>juan33familiaqz6@gmail.com</t>
-  </si>
-  <si>
     <t>oliivafelipe@gmail.com</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   <si>
     <t>Giovanna.pcs@vigorito.com.br</t>
   </si>
+  <si>
+    <t>deividalvesvieira47@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +384,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -729,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -749,6 +755,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1108,7 +1115,7 @@
   <dimension ref="A1:Q336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1588,8 +1595,8 @@
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6" t="s">
-        <v>55</v>
+      <c r="P13" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>49</v>
@@ -1612,7 +1619,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>49</v>
@@ -1635,7 +1642,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>49</v>
@@ -1658,7 +1665,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>49</v>
@@ -1681,7 +1688,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>49</v>
@@ -1704,7 +1711,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>49</v>
@@ -1726,8 +1733,12 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="P19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3"/>
@@ -7765,12 +7776,12 @@
     <hyperlink ref="P11" r:id="rId9" xr:uid="{7C2398D3-DE68-4236-BCB0-3407B8F92C82}"/>
     <hyperlink ref="P10" r:id="rId10" xr:uid="{42FE7084-E887-42DD-AD70-25F4291A457A}"/>
     <hyperlink ref="P12" r:id="rId11" xr:uid="{1CD600D8-6BE1-4451-9C23-E440089AAD62}"/>
-    <hyperlink ref="P13" r:id="rId12" xr:uid="{9436D9A6-406E-4CBC-BEDD-CD21C3E6BB04}"/>
-    <hyperlink ref="P14" r:id="rId13" xr:uid="{E014A7DC-A16C-4844-A06B-0F611B21D828}"/>
-    <hyperlink ref="P15" r:id="rId14" xr:uid="{A57C1A84-054B-44C3-AF33-9E3301E45205}"/>
-    <hyperlink ref="P16" r:id="rId15" xr:uid="{0656879B-A37F-4E29-8DBE-01C4B1C3C62B}"/>
-    <hyperlink ref="P17" r:id="rId16" xr:uid="{57A7D386-209C-4B56-8B70-EE073A21A49C}"/>
-    <hyperlink ref="P18" r:id="rId17" xr:uid="{FDDB1971-E614-4C73-A279-B604882252B8}"/>
+    <hyperlink ref="P14" r:id="rId12" xr:uid="{E014A7DC-A16C-4844-A06B-0F611B21D828}"/>
+    <hyperlink ref="P15" r:id="rId13" xr:uid="{A57C1A84-054B-44C3-AF33-9E3301E45205}"/>
+    <hyperlink ref="P16" r:id="rId14" xr:uid="{0656879B-A37F-4E29-8DBE-01C4B1C3C62B}"/>
+    <hyperlink ref="P17" r:id="rId15" xr:uid="{57A7D386-209C-4B56-8B70-EE073A21A49C}"/>
+    <hyperlink ref="P18" r:id="rId16" xr:uid="{FDDB1971-E614-4C73-A279-B604882252B8}"/>
+    <hyperlink ref="P19" r:id="rId17" xr:uid="{2C3814F9-81B0-4696-8C23-027AA18B75C3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BN3PEPF00008C20\EXCELCNV\9d1fc0a3-37d8-47cf-a8a5-2991b0a86522\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41647C3A-F0EB-4187-8567-B37E2383E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AB205E-AC58-4CCE-9A85-A6B6E3C08178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -215,10 +215,10 @@
     <t>Gipeperaio9@gmail.com</t>
   </si>
   <si>
-    <t>Giovanna.pcs@vigorito.com.br</t>
+    <t>deividalvesvieira47@gmail.com</t>
   </si>
   <si>
-    <t>deividalvesvieira47@gmail.com</t>
+    <t>michelealmeida890@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:Q336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1710,8 +1710,8 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="6" t="s">
-        <v>59</v>
+      <c r="P18" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>49</v>
@@ -1734,7 +1734,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>49</v>
@@ -1756,8 +1756,12 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="P20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="5"/>
@@ -7780,8 +7784,8 @@
     <hyperlink ref="P15" r:id="rId13" xr:uid="{A57C1A84-054B-44C3-AF33-9E3301E45205}"/>
     <hyperlink ref="P16" r:id="rId14" xr:uid="{0656879B-A37F-4E29-8DBE-01C4B1C3C62B}"/>
     <hyperlink ref="P17" r:id="rId15" xr:uid="{57A7D386-209C-4B56-8B70-EE073A21A49C}"/>
-    <hyperlink ref="P18" r:id="rId16" xr:uid="{FDDB1971-E614-4C73-A279-B604882252B8}"/>
-    <hyperlink ref="P19" r:id="rId17" xr:uid="{2C3814F9-81B0-4696-8C23-027AA18B75C3}"/>
+    <hyperlink ref="P19" r:id="rId16" xr:uid="{2C3814F9-81B0-4696-8C23-027AA18B75C3}"/>
+    <hyperlink ref="P20" r:id="rId17" xr:uid="{4A45DECE-143E-468D-85A1-2526919DD108}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
